--- a/Saudi/Booking.xlsx
+++ b/Saudi/Booking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Booking No</t>
   </si>
@@ -66,10 +66,7 @@
     <t>Purpose of Stay</t>
   </si>
   <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>Tax</t>
+    <t>Room Tax</t>
   </si>
   <si>
     <t>DXKCV</t>
@@ -571,7 +568,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -579,12 +576,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -916,18 +907,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" style="1" customWidth="1"/>
@@ -935,11 +924,11 @@
     <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -989,69 +978,49 @@
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="4" t="s">
+      <c r="A2" s="3">
+        <v>77401</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4">
+        <v>44279</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44282</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>401</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>77401</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="6">
-        <v>44279</v>
-      </c>
-      <c r="D3" s="6">
-        <v>44282</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3">
-        <v>401</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H2" s="5">
+        <v>2500</v>
+      </c>
+      <c r="I2" s="5">
+        <v>7500</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7">
-        <v>2500</v>
-      </c>
-      <c r="I3" s="7">
-        <v>7500</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3">
+      <c r="N2" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="4">
+      <c r="O2" s="2"/>
+      <c r="P2" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Saudi/Booking.xlsx
+++ b/Saudi/Booking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Booking No</t>
   </si>
@@ -69,10 +69,16 @@
     <t>Room Tax</t>
   </si>
   <si>
+    <t>Resv Status</t>
+  </si>
+  <si>
     <t>DXKCV</t>
   </si>
   <si>
     <t>CA</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
   </si>
 </sst>
 </file>
@@ -215,7 +221,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -907,32 +913,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -981,8 +988,11 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>77401</v>
       </c>
@@ -1000,7 +1010,7 @@
         <v>401</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="5">
         <v>2500</v>
@@ -1014,7 +1024,7 @@
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" s="3">
         <v>1</v>
@@ -1022,6 +1032,9 @@
       <c r="O2" s="2"/>
       <c r="P2" s="3">
         <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Saudi/Booking.xlsx
+++ b/Saudi/Booking.xlsx
@@ -19,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Booking No</t>
   </si>
   <si>
-    <t>Nationality Code</t>
+    <t>Nationality</t>
   </si>
   <si>
     <t>Arrival Date</t>
@@ -42,7 +42,10 @@
     <t>Room Type</t>
   </si>
   <si>
-    <t>Full Rate Amount</t>
+    <t>Daily Rate</t>
+  </si>
+  <si>
+    <t>Total Rate</t>
   </si>
   <si>
     <t>Total Room</t>
@@ -221,7 +224,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="5"/>
+      <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -574,7 +577,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -582,6 +585,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -913,37 +922,38 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="8" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -991,16 +1001,19 @@
       <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>77401</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4">
+      <c r="B2" s="4"/>
+      <c r="C2" s="6">
         <v>44279</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>44282</v>
       </c>
       <c r="E2" s="3">
@@ -1010,31 +1023,34 @@
         <v>401</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5">
+        <v>18</v>
+      </c>
+      <c r="H2" s="7">
         <v>2500</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="7">
         <v>7500</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3">
+      <c r="J2" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3">
         <v>1</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3">
+      <c r="M2" s="2"/>
+      <c r="N2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="3">
         <v>1</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="3">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3">
         <v>0</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>19</v>
+      <c r="R2" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Saudi/Booking.xlsx
+++ b/Saudi/Booking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="34">
   <si>
     <t>Booking No</t>
   </si>
@@ -33,7 +33,13 @@
     <t>Departure Date</t>
   </si>
   <si>
-    <t>Number of Nights</t>
+    <t>Arrival Time</t>
+  </si>
+  <si>
+    <t>Departure Time</t>
+  </si>
+  <si>
+    <t>Nights</t>
   </si>
   <si>
     <t>Room No.</t>
@@ -48,9 +54,6 @@
     <t>Total Rate</t>
   </si>
   <si>
-    <t>Total Room</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -60,7 +63,10 @@
     <t>Date of Birth</t>
   </si>
   <si>
-    <t>Payment Method</t>
+    <t>Pay Method</t>
+  </si>
+  <si>
+    <t>Pay Amount</t>
   </si>
   <si>
     <t>No. of Rooms</t>
@@ -72,16 +78,49 @@
     <t>Room Tax</t>
   </si>
   <si>
-    <t>Resv Status</t>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>*11:01</t>
   </si>
   <si>
     <t>DXKCV</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>XX/XX/XX</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
+    <t>CHECKED IN</t>
+  </si>
+  <si>
     <t>RESERVED</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>*10:56</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>*16:45</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Reserve Status</t>
   </si>
 </sst>
 </file>
@@ -224,7 +263,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -577,7 +616,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -593,6 +632,9 @@
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="4" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -922,34 +964,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="7.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="5.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1004,55 +1049,1016 @@
       <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>77401</v>
+        <v>77904</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6">
+        <v>43548</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43551</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1106</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3">
+        <v>459</v>
+      </c>
+      <c r="K2" s="8">
+        <v>1377</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>77401</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6">
         <v>44279</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D3" s="6">
         <v>44282</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E3" s="2"/>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="3">
+      <c r="H3" s="3">
         <v>401</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="8">
         <v>2500</v>
       </c>
-      <c r="I2" s="7">
+      <c r="K3" s="8">
         <v>7500</v>
       </c>
-      <c r="J2" s="3">
-        <v>7500</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="3">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="3">
+      <c r="L3" s="2"/>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="3">
         <v>0</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>20</v>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>77903</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43548</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43557</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3">
+        <v>614</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K4" s="8">
+        <v>22500</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="3">
+        <v>4</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>77654</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43548</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43553</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>606</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K5" s="8">
+        <v>12500</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="3">
+        <v>245</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>77654</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43548</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43553</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>606</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K6" s="8">
+        <v>12500</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="3">
+        <v>245</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>77654</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43548</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43553</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>606</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K7" s="8">
+        <v>12500</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="3">
+        <v>245</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>77654</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43548</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43553</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>606</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K8" s="8">
+        <v>12500</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="3">
+        <v>245</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>77654</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43548</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43553</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>606</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K9" s="8">
+        <v>12500</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="3">
+        <v>245</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="U9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>77654</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6">
+        <v>43548</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43553</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>606</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K10" s="8">
+        <v>12500</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="3">
+        <v>245</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="U10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>77654</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6">
+        <v>43548</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43553</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>606</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K11" s="8">
+        <v>12500</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="3">
+        <v>245</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2"/>
+      <c r="U11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>77654</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6">
+        <v>43548</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43553</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>606</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K12" s="8">
+        <v>12500</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="3">
+        <v>245</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>77654</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6">
+        <v>43548</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43553</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>606</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K13" s="8">
+        <v>12500</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="3">
+        <v>245</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>77654</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6">
+        <v>43548</v>
+      </c>
+      <c r="D14" s="6">
+        <v>43553</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>606</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K14" s="8">
+        <v>12500</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="3">
+        <v>245</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3">
+        <v>562.5</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>77654</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6">
+        <v>43548</v>
+      </c>
+      <c r="D15" s="6">
+        <v>43553</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>606</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K15" s="8">
+        <v>12500</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="3">
+        <v>245</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2"/>
+      <c r="U15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>77654</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="6">
+        <v>43548</v>
+      </c>
+      <c r="D16" s="6">
+        <v>43553</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>606</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K16" s="8">
+        <v>12500</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="3">
+        <v>245</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>77654</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6">
+        <v>43548</v>
+      </c>
+      <c r="D17" s="6">
+        <v>43553</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>606</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K17" s="8">
+        <v>12500</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="3">
+        <v>245</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2"/>
+      <c r="U17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>77654</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="6">
+        <v>43548</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43553</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>606</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K18" s="8">
+        <v>12500</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="3">
+        <v>245</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Saudi/Booking.xlsx
+++ b/Saudi/Booking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="42">
   <si>
     <t>Booking No</t>
   </si>
@@ -27,6 +27,9 @@
     <t>Nationality</t>
   </si>
   <si>
+    <t>CT</t>
+  </si>
+  <si>
     <t>Arrival Date</t>
   </si>
   <si>
@@ -66,21 +69,24 @@
     <t>Pay Method</t>
   </si>
   <si>
-    <t>Pay Amount</t>
-  </si>
-  <si>
     <t>No. of Rooms</t>
   </si>
   <si>
-    <t>Purpose of Stay</t>
-  </si>
-  <si>
-    <t>Room Tax</t>
+    <t>POS</t>
   </si>
   <si>
     <t>Discount</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Rate Code</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
     <t>*11:01</t>
   </si>
   <si>
@@ -99,12 +105,21 @@
     <t>CHECKED IN</t>
   </si>
   <si>
+    <t>BARRO</t>
+  </si>
+  <si>
     <t>RESERVED</t>
   </si>
   <si>
+    <t>RACK</t>
+  </si>
+  <si>
     <t>AD</t>
   </si>
   <si>
+    <t>VS</t>
+  </si>
+  <si>
     <t>*10:56</t>
   </si>
   <si>
@@ -120,14 +135,23 @@
     <t>CL</t>
   </si>
   <si>
-    <t>Reserve Status</t>
+    <t>T</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,13 +287,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="5"/>
+      <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,6 +483,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +653,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -638,6 +675,15 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="4" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -964,86 +1010,88 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="7.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
@@ -1056,1009 +1104,1018 @@
         <v>19</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>77904</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="6">
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6">
         <v>43548</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="6">
         <v>43551</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="7">
         <v>0.20833333333333334</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>3</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>1106</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3">
         <v>459</v>
       </c>
-      <c r="K2" s="8">
+      <c r="L2" s="8">
         <v>1377</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>23</v>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="Q2" s="3">
         <v>1</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2"/>
+      <c r="R2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="U2" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>77401</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="6">
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
         <v>44279</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="6">
         <v>44282</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="7">
+      <c r="F3" s="2"/>
+      <c r="G3" s="7">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>401</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="8">
         <v>2500</v>
       </c>
-      <c r="K3" s="8">
+      <c r="L3" s="8">
         <v>7500</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="Q3" s="3">
         <v>1</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2"/>
+      <c r="R3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="U3" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>77903</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43548</v>
+      </c>
+      <c r="E4" s="6">
+        <v>43557</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3">
+        <v>614</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L4" s="8">
+        <v>22500</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="3">
+        <v>4</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="6">
-        <v>43548</v>
-      </c>
-      <c r="D4" s="6">
-        <v>43557</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="3">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3">
-        <v>614</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K4" s="8">
-        <v>22500</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="3">
-        <v>4</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2"/>
       <c r="U4" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>77654</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43548</v>
+      </c>
+      <c r="E5" s="6">
+        <v>43553</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>606</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L5" s="8">
+        <v>12500</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="6">
-        <v>43548</v>
-      </c>
-      <c r="D5" s="6">
-        <v>43553</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3">
-        <v>606</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K5" s="8">
-        <v>12500</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="3">
-        <v>245</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>77654</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43548</v>
+      </c>
+      <c r="E6" s="6">
+        <v>43553</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>606</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L6" s="8">
+        <v>12500</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="11"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6">
-        <v>43548</v>
-      </c>
-      <c r="D6" s="6">
-        <v>43553</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3">
-        <v>606</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K6" s="8">
-        <v>12500</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="3">
-        <v>245</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>77654</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43548</v>
+      </c>
+      <c r="E7" s="6">
+        <v>43553</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>606</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L7" s="8">
+        <v>12500</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="11"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="6">
-        <v>43548</v>
-      </c>
-      <c r="D7" s="6">
-        <v>43553</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="3">
-        <v>5</v>
-      </c>
-      <c r="H7" s="3">
-        <v>606</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K7" s="8">
-        <v>12500</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="3">
-        <v>245</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>77654</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43548</v>
+      </c>
+      <c r="E8" s="6">
+        <v>43553</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>606</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L8" s="8">
+        <v>12500</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="11"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="6">
-        <v>43548</v>
-      </c>
-      <c r="D8" s="6">
-        <v>43553</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>606</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K8" s="8">
-        <v>12500</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="3">
-        <v>245</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>77654</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43548</v>
+      </c>
+      <c r="E9" s="6">
+        <v>43553</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>606</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L9" s="8">
+        <v>12500</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6">
-        <v>43548</v>
-      </c>
-      <c r="D9" s="6">
-        <v>43553</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>606</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K9" s="8">
-        <v>12500</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="3">
-        <v>245</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>77654</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43548</v>
+      </c>
+      <c r="E10" s="6">
+        <v>43553</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>606</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L10" s="8">
+        <v>12500</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="6">
-        <v>43548</v>
-      </c>
-      <c r="D10" s="6">
-        <v>43553</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>606</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K10" s="8">
-        <v>12500</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="3">
-        <v>245</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>77654</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43548</v>
+      </c>
+      <c r="E11" s="6">
+        <v>43553</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>606</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L11" s="8">
+        <v>12500</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6">
-        <v>43548</v>
-      </c>
-      <c r="D11" s="6">
-        <v>43553</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="3">
-        <v>5</v>
-      </c>
-      <c r="H11" s="3">
-        <v>606</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K11" s="8">
-        <v>12500</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="3">
-        <v>245</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>77654</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43548</v>
+      </c>
+      <c r="E12" s="6">
+        <v>43553</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>606</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L12" s="8">
+        <v>12500</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6">
-        <v>43548</v>
-      </c>
-      <c r="D12" s="6">
-        <v>43553</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>606</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K12" s="8">
-        <v>12500</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="3">
-        <v>245</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>77654</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43548</v>
+      </c>
+      <c r="E13" s="6">
+        <v>43553</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3">
+        <v>606</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L13" s="8">
+        <v>12500</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="6">
-        <v>43548</v>
-      </c>
-      <c r="D13" s="6">
-        <v>43553</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="3">
-        <v>5</v>
-      </c>
-      <c r="H13" s="3">
-        <v>606</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K13" s="8">
-        <v>12500</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="3">
-        <v>1</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="3">
-        <v>245</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>77654</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6">
+        <v>43548</v>
+      </c>
+      <c r="E14" s="6">
+        <v>43553</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>606</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L14" s="8">
+        <v>12500</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6">
-        <v>43548</v>
-      </c>
-      <c r="D14" s="6">
-        <v>43553</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>606</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K14" s="8">
-        <v>12500</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="3">
-        <v>1</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="3">
-        <v>245</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3">
-        <v>562.5</v>
-      </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>77654</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6">
+        <v>43548</v>
+      </c>
+      <c r="E15" s="6">
+        <v>43553</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>606</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L15" s="8">
+        <v>12500</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="6">
-        <v>43548</v>
-      </c>
-      <c r="D15" s="6">
-        <v>43553</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>606</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K15" s="8">
-        <v>12500</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="3">
-        <v>1</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="3">
-        <v>245</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2"/>
-      <c r="U15" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>77654</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6">
+        <v>43548</v>
+      </c>
+      <c r="E16" s="6">
+        <v>43553</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5</v>
+      </c>
+      <c r="I16" s="3">
+        <v>606</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L16" s="8">
+        <v>12500</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="6">
-        <v>43548</v>
-      </c>
-      <c r="D16" s="6">
-        <v>43553</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5</v>
-      </c>
-      <c r="H16" s="3">
-        <v>606</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K16" s="8">
-        <v>12500</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="3">
-        <v>1</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="3">
-        <v>245</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2"/>
-      <c r="U16" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>77654</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6">
+        <v>43548</v>
+      </c>
+      <c r="E17" s="6">
+        <v>43553</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>606</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L17" s="8">
+        <v>12500</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="6">
-        <v>43548</v>
-      </c>
-      <c r="D17" s="6">
-        <v>43553</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>606</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K17" s="8">
-        <v>12500</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="3">
-        <v>1</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="3">
-        <v>245</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>77654</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43548</v>
+      </c>
+      <c r="E18" s="6">
+        <v>43553</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>606</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L18" s="8">
+        <v>12500</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6">
-        <v>43548</v>
-      </c>
-      <c r="D18" s="6">
-        <v>43553</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>606</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K18" s="8">
-        <v>12500</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="3">
-        <v>1</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="3">
-        <v>245</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Saudi/Booking.xlsx
+++ b/Saudi/Booking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Booking No</t>
   </si>
@@ -133,25 +133,13 @@
   </si>
   <si>
     <t>CL</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>RC</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,15 +280,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,12 +464,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +628,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -675,15 +650,6 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="4" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1010,10 +976,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,55 +1009,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
@@ -1157,9 +1123,7 @@
       <c r="Q2" s="3">
         <v>1</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="3" t="s">
         <v>27</v>
@@ -1212,9 +1176,7 @@
       <c r="Q3" s="3">
         <v>1</v>
       </c>
-      <c r="R3" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="3" t="s">
         <v>29</v>
@@ -1275,9 +1237,7 @@
       <c r="Q4" s="3">
         <v>1</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="3" t="s">
         <v>27</v>
@@ -1336,783 +1296,12 @@
       <c r="Q5" s="3">
         <v>1</v>
       </c>
-      <c r="R5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>77654</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6">
-        <v>43548</v>
-      </c>
-      <c r="E6" s="6">
-        <v>43553</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="3">
-        <v>5</v>
-      </c>
-      <c r="I6" s="3">
-        <v>606</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L6" s="8">
-        <v>12500</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>1</v>
-      </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>77654</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="6">
-        <v>43548</v>
-      </c>
-      <c r="E7" s="6">
-        <v>43553</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="3">
-        <v>5</v>
-      </c>
-      <c r="I7" s="3">
-        <v>606</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L7" s="8">
-        <v>12500</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>1</v>
-      </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>77654</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6">
-        <v>43548</v>
-      </c>
-      <c r="E8" s="6">
-        <v>43553</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5</v>
-      </c>
-      <c r="I8" s="3">
-        <v>606</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L8" s="8">
-        <v>12500</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1</v>
-      </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>77654</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="6">
-        <v>43548</v>
-      </c>
-      <c r="E9" s="6">
-        <v>43553</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>606</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L9" s="8">
-        <v>12500</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>77654</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6">
-        <v>43548</v>
-      </c>
-      <c r="E10" s="6">
-        <v>43553</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>606</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L10" s="8">
-        <v>12500</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>77654</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="6">
-        <v>43548</v>
-      </c>
-      <c r="E11" s="6">
-        <v>43553</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="3">
-        <v>5</v>
-      </c>
-      <c r="I11" s="3">
-        <v>606</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L11" s="8">
-        <v>12500</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>77654</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6">
-        <v>43548</v>
-      </c>
-      <c r="E12" s="6">
-        <v>43553</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3">
-        <v>606</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L12" s="8">
-        <v>12500</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>77654</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="6">
-        <v>43548</v>
-      </c>
-      <c r="E13" s="6">
-        <v>43553</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="3">
-        <v>5</v>
-      </c>
-      <c r="I13" s="3">
-        <v>606</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L13" s="8">
-        <v>12500</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>77654</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="6">
-        <v>43548</v>
-      </c>
-      <c r="E14" s="6">
-        <v>43553</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>606</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L14" s="8">
-        <v>12500</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="3">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>77654</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="6">
-        <v>43548</v>
-      </c>
-      <c r="E15" s="6">
-        <v>43553</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>606</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L15" s="8">
-        <v>12500</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>77654</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="6">
-        <v>43548</v>
-      </c>
-      <c r="E16" s="6">
-        <v>43553</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="3">
-        <v>5</v>
-      </c>
-      <c r="I16" s="3">
-        <v>606</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L16" s="8">
-        <v>12500</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>77654</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="6">
-        <v>43548</v>
-      </c>
-      <c r="E17" s="6">
-        <v>43553</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>606</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L17" s="8">
-        <v>12500</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="3">
-        <v>1</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>77654</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="6">
-        <v>43548</v>
-      </c>
-      <c r="E18" s="6">
-        <v>43553</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>606</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L18" s="8">
-        <v>12500</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U18" s="3" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Saudi/Booking.xlsx
+++ b/Saudi/Booking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Booking No</t>
   </si>
@@ -84,46 +84,52 @@
     <t>Rate Code</t>
   </si>
   <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>*15:07</t>
+  </si>
+  <si>
+    <t>DXKCV</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>CHECKED IN</t>
+  </si>
+  <si>
+    <t>BARRO</t>
+  </si>
+  <si>
     <t>RS</t>
   </si>
   <si>
     <t>*11:01</t>
   </si>
   <si>
-    <t>DXKCV</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>XX/XX/XX</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>CHECKED IN</t>
-  </si>
-  <si>
-    <t>BARRO</t>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>*10:56</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>RACK</t>
   </si>
   <si>
     <t>RESERVED</t>
-  </si>
-  <si>
-    <t>RACK</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>VS</t>
-  </si>
-  <si>
-    <t>*10:56</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>AE</t>
@@ -976,17 +982,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
@@ -1004,11 +1010,11 @@
     <col min="18" max="18" width="4.140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="1" customWidth="1"/>
     <col min="20" max="20" width="9.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1073,9 +1079,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>77904</v>
+        <v>77905</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="3" t="s">
@@ -1085,45 +1091,45 @@
         <v>43548</v>
       </c>
       <c r="E2" s="6">
-        <v>43551</v>
+        <v>43571</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="7">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="3">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3">
-        <v>1106</v>
+        <v>1209</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="3">
-        <v>459</v>
+        <v>464.1</v>
       </c>
       <c r="L2" s="8">
-        <v>1377</v>
+        <v>10674.3</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N2" s="3">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="Q2" s="3">
         <v>1</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="R2" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="3" t="s">
         <v>27</v>
@@ -1132,46 +1138,52 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>77401</v>
+        <v>77904</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6">
-        <v>44279</v>
+        <v>43548</v>
       </c>
       <c r="E3" s="6">
-        <v>44282</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>43551</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="H3" s="3">
         <v>3</v>
       </c>
       <c r="I3" s="3">
-        <v>401</v>
+        <v>1106</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="8">
-        <v>2500</v>
+      <c r="K3" s="3">
+        <v>459</v>
       </c>
       <c r="L3" s="8">
-        <v>7500</v>
-      </c>
-      <c r="M3" s="2"/>
+        <v>1377</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="N3" s="3">
         <v>1</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="6">
+        <v>43525</v>
+      </c>
       <c r="P3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="3">
         <v>1</v>
@@ -1179,13 +1191,13 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>77903</v>
       </c>
@@ -1228,11 +1240,11 @@
       <c r="N4" s="3">
         <v>4</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="6">
+        <v>36220</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="Q4" s="3">
         <v>1</v>
@@ -1243,36 +1255,32 @@
         <v>27</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>77654</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
+        <v>77401</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D5" s="6">
-        <v>43548</v>
+        <v>44279</v>
       </c>
       <c r="E5" s="6">
-        <v>43553</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>44282</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5" s="3">
-        <v>606</v>
+        <v>401</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>23</v>
@@ -1281,17 +1289,15 @@
         <v>2500</v>
       </c>
       <c r="L5" s="8">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="3">
         <v>1</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2"/>
+      <c r="P5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="Q5" s="3">
         <v>1</v>
@@ -1299,10 +1305,69 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>77654</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43548</v>
+      </c>
+      <c r="E6" s="6">
+        <v>43553</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>606</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2500</v>
+      </c>
+      <c r="L6" s="8">
+        <v>12500</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>28836</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>30</v>
+      <c r="U6" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Saudi/Booking.xlsx
+++ b/Saudi/Booking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
   <si>
     <t>Booking No</t>
   </si>
@@ -39,106 +39,154 @@
     <t>Arrival Time</t>
   </si>
   <si>
+    <t>Nights</t>
+  </si>
+  <si>
+    <t>Room No.</t>
+  </si>
+  <si>
+    <t>Room Type</t>
+  </si>
+  <si>
+    <t>Daily Rate</t>
+  </si>
+  <si>
+    <t>Total Rate</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Pay Method</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Discount Percent</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Rate Code</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>07.05.21</t>
+  </si>
+  <si>
+    <t>08.05.21</t>
+  </si>
+  <si>
+    <t>DLX01K</t>
+  </si>
+  <si>
+    <t>31.12.90</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CHECKED OUT</t>
+  </si>
+  <si>
+    <t>BARBB</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>14.05.21</t>
+  </si>
+  <si>
+    <t>15.05.21</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>27.05.21</t>
+  </si>
+  <si>
+    <t>29.05.21</t>
+  </si>
+  <si>
+    <t>STEG1K</t>
+  </si>
+  <si>
+    <t>SPAN</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>DLX02S</t>
+  </si>
+  <si>
+    <t>RAMADAND</t>
+  </si>
+  <si>
+    <t>*02:51</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>PK004BBB</t>
+  </si>
+  <si>
+    <t>26.05.21</t>
+  </si>
+  <si>
+    <t>28.05.21</t>
+  </si>
+  <si>
+    <t>UP00390R</t>
+  </si>
+  <si>
+    <t>13.05.21</t>
+  </si>
+  <si>
+    <t>CHECKED IN</t>
+  </si>
+  <si>
+    <t>PK04972B</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>18.05.21</t>
+  </si>
+  <si>
+    <t>20.05.21</t>
+  </si>
+  <si>
+    <t>UD02938R</t>
+  </si>
+  <si>
     <t>Departure Time</t>
   </si>
   <si>
-    <t>Nights</t>
-  </si>
-  <si>
-    <t>Room No.</t>
-  </si>
-  <si>
-    <t>Room Type</t>
-  </si>
-  <si>
-    <t>Daily Rate</t>
-  </si>
-  <si>
-    <t>Total Rate</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>Pay Method</t>
-  </si>
-  <si>
     <t>No. of Rooms</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Rate Code</t>
-  </si>
-  <si>
-    <t>GC</t>
-  </si>
-  <si>
-    <t>*15:07</t>
-  </si>
-  <si>
-    <t>DXKCV</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>CHECKED IN</t>
-  </si>
-  <si>
-    <t>BARRO</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>*11:01</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>VS</t>
-  </si>
-  <si>
-    <t>*10:56</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>RACK</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>*16:45</t>
-  </si>
-  <si>
-    <t>CL</t>
   </si>
 </sst>
 </file>
@@ -281,7 +329,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -634,7 +682,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -648,9 +696,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="20" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -982,39 +1027,38 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="8.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1034,154 +1078,152 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>971469</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>77905</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6">
-        <v>43548</v>
-      </c>
-      <c r="E2" s="6">
-        <v>43571</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7">
-        <v>0.25</v>
+      <c r="F2" s="6">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.21111111111111111</v>
       </c>
       <c r="H2" s="3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I2" s="3">
-        <v>1209</v>
+        <v>248</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="3">
-        <v>464.1</v>
-      </c>
-      <c r="L2" s="8">
-        <v>10674.3</v>
-      </c>
-      <c r="M2" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="L2" s="3">
+        <v>400</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="3">
-        <v>2</v>
-      </c>
-      <c r="O2" s="2"/>
       <c r="P2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q2" s="3">
         <v>1</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>971219</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>77904</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="6">
-        <v>43548</v>
-      </c>
-      <c r="E3" s="6">
-        <v>43551</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.20833333333333334</v>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.54097222222222219</v>
       </c>
       <c r="H3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3">
-        <v>1106</v>
+        <v>110</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="3">
-        <v>459</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1377</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="L3" s="3">
+        <v>450</v>
+      </c>
+      <c r="M3" s="2"/>
       <c r="N3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6">
-        <v>43525</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O3" s="2"/>
       <c r="P3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1190,59 +1232,54 @@
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2"/>
+      <c r="U3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>77903</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="6">
-        <v>43548</v>
-      </c>
-      <c r="E4" s="6">
-        <v>43557</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.5</v>
+        <v>969469</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.60763888888888895</v>
       </c>
       <c r="H4" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3">
-        <v>614</v>
+        <v>9050</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L4" s="8">
-        <v>22500</v>
+        <v>29</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N4" s="3">
-        <v>4</v>
-      </c>
-      <c r="O4" s="6">
-        <v>36220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O4" s="2"/>
       <c r="P4" s="3" t="s">
         <v>25</v>
       </c>
@@ -1251,49 +1288,52 @@
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="T4" s="2"/>
       <c r="U4" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>77401</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>44279</v>
-      </c>
-      <c r="E5" s="6">
-        <v>44282</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="7">
-        <v>0</v>
+        <v>967469</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.35347222222222219</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.77916666666666667</v>
       </c>
       <c r="H5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>401</v>
+        <v>208</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L5" s="8">
-        <v>7500</v>
+      <c r="K5" s="3">
+        <v>450</v>
+      </c>
+      <c r="L5" s="3">
+        <v>450</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="3" t="s">
@@ -1304,74 +1344,843 @@
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="T5" s="2"/>
       <c r="U5" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>77654</v>
+        <v>967969</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6">
-        <v>43548</v>
-      </c>
-      <c r="E6" s="6">
-        <v>43553</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.57777777777777783</v>
       </c>
       <c r="H6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6" s="3">
-        <v>606</v>
+        <v>105</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="8">
-        <v>2500</v>
-      </c>
-      <c r="L6" s="8">
-        <v>12500</v>
+      <c r="K6" s="3">
+        <v>450</v>
+      </c>
+      <c r="L6" s="3">
+        <v>450</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="3">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6">
-        <v>28836</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O6" s="2"/>
       <c r="P6" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="3">
         <v>1</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="2"/>
+      <c r="U6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>968969</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>244</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="3">
+        <v>650</v>
+      </c>
+      <c r="L7" s="3">
+        <v>650</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3">
+        <v>2</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>968719</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>252</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2200</v>
+      </c>
+      <c r="L8" s="7">
+        <v>4400</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3">
+        <v>2</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>968220</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>103</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="3">
+        <v>400</v>
+      </c>
+      <c r="L9" s="3">
+        <v>400</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>968219</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>146</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="3">
+        <v>400</v>
+      </c>
+      <c r="L10" s="3">
+        <v>400</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>969719</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.65208333333333335</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>145</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="3">
+        <v>610</v>
+      </c>
+      <c r="L11" s="3">
+        <v>610</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="3">
+        <v>3</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>970719</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>135</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="3">
+        <v>405</v>
+      </c>
+      <c r="L12" s="3">
+        <v>405</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="3">
+        <v>2</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>970219</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="3">
+        <v>550</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1100</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>967719</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.78263888888888899</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>140</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="3">
+        <v>405</v>
+      </c>
+      <c r="L14" s="3">
+        <v>405</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>966722</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>148</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="3">
+        <v>400</v>
+      </c>
+      <c r="L15" s="7">
+        <v>2000</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>966721</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>222</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="3">
+        <v>400</v>
+      </c>
+      <c r="L16" s="3">
+        <v>400</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>966720</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.96458333333333324</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.65625</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>221</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="3">
+        <v>400</v>
+      </c>
+      <c r="L17" s="3">
+        <v>400</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>966719</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.96458333333333324</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>219</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="3">
+        <v>400</v>
+      </c>
+      <c r="L18" s="3">
+        <v>400</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>966470</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="3">
+        <v>650</v>
+      </c>
+      <c r="L19" s="7">
+        <v>1300</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>966469</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="3">
+        <v>495</v>
+      </c>
+      <c r="L20" s="3">
+        <v>990</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="3">
+        <v>2</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Saudi/Booking.xlsx
+++ b/Saudi/Booking.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Laura-Youssef\Oracle\infor-sun-poc\Saudi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eagle\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90777BF7-C612-48AB-8A1F-BE021B8C3CA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="63">
   <si>
     <t>Booking No</t>
   </si>
@@ -39,6 +40,9 @@
     <t>Arrival Time</t>
   </si>
   <si>
+    <t>Departure Time</t>
+  </si>
+  <si>
     <t>Nights</t>
   </si>
   <si>
@@ -54,6 +58,12 @@
     <t>Total Rate</t>
   </si>
   <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -66,6 +76,9 @@
     <t>Pay Method</t>
   </si>
   <si>
+    <t>No. of Rooms</t>
+  </si>
+  <si>
     <t>POS</t>
   </si>
   <si>
@@ -93,6 +106,9 @@
     <t>DLX01K</t>
   </si>
   <si>
+    <t>Accommodation Charges</t>
+  </si>
+  <si>
     <t>31.12.90</t>
   </si>
   <si>
@@ -114,6 +130,12 @@
     <t>U</t>
   </si>
   <si>
+    <t>09.05.21</t>
+  </si>
+  <si>
+    <t>DLX02S</t>
+  </si>
+  <si>
     <t>14.05.21</t>
   </si>
   <si>
@@ -123,25 +145,25 @@
     <t>RESERVED</t>
   </si>
   <si>
-    <t>27.05.21</t>
-  </si>
-  <si>
-    <t>29.05.21</t>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>RAMADAND</t>
+  </si>
+  <si>
+    <t>*02:37</t>
   </si>
   <si>
     <t>STEG1K</t>
   </si>
   <si>
-    <t>SPAN</t>
-  </si>
-  <si>
-    <t>AX</t>
-  </si>
-  <si>
-    <t>DLX02S</t>
-  </si>
-  <si>
-    <t>RAMADAND</t>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>*02:36</t>
+  </si>
+  <si>
+    <t>EXE02S</t>
   </si>
   <si>
     <t>*02:51</t>
@@ -153,6 +175,15 @@
     <t>PK004BBB</t>
   </si>
   <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>*02:16</t>
+  </si>
+  <si>
+    <t>PK04972B</t>
+  </si>
+  <si>
     <t>26.05.21</t>
   </si>
   <si>
@@ -168,12 +199,6 @@
     <t>CHECKED IN</t>
   </si>
   <si>
-    <t>PK04972B</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
     <t>18.05.21</t>
   </si>
   <si>
@@ -183,16 +208,13 @@
     <t>UD02938R</t>
   </si>
   <si>
-    <t>Departure Time</t>
-  </si>
-  <si>
-    <t>No. of Rooms</t>
+    <t>RAMADANHB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,7 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -329,7 +351,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="5"/>
+      <sz val="4"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -660,27 +682,27 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -778,7 +800,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -790,7 +812,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -807,9 +829,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -837,14 +859,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -872,6 +911,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1027,38 +1083,38 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="1" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1078,67 +1134,73 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>971469</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6">
         <v>0.95000000000000007</v>
@@ -1153,7 +1215,7 @@
         <v>248</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K2" s="3">
         <v>400</v>
@@ -1161,42 +1223,48 @@
       <c r="L2" s="3">
         <v>400</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>1</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="M2" s="3">
+        <v>350</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="3">
+        <v>1</v>
+      </c>
       <c r="T2" s="2"/>
-      <c r="U2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>971219</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F3" s="6">
         <v>0.84027777777777779</v>
@@ -1211,7 +1279,7 @@
         <v>110</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K3" s="3">
         <v>450</v>
@@ -1219,38 +1287,44 @@
       <c r="L3" s="3">
         <v>450</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3">
+      <c r="M3" s="3">
+        <v>350</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3">
         <v>2</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
       <c r="T3" s="2"/>
-      <c r="U3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>969469</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6">
         <v>0.63611111111111118</v>
@@ -1265,7 +1339,7 @@
         <v>9050</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -1273,723 +1347,793 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
       <c r="T4" s="2"/>
-      <c r="U4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>967469</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>969469</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F5" s="6">
-        <v>0.35347222222222219</v>
+        <v>0.63611111111111118</v>
       </c>
       <c r="G5" s="6">
-        <v>0.77916666666666667</v>
+        <v>0.60763888888888895</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>208</v>
+        <v>9050</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K5" s="3">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="L5" s="3">
-        <v>450</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="3">
-        <v>2</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>309.98</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
       <c r="T5" s="2"/>
-      <c r="U5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>967969</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>969469</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6">
-        <v>0.4284722222222222</v>
+        <v>0.63611111111111118</v>
       </c>
       <c r="G6" s="6">
-        <v>0.57777777777777783</v>
+        <v>0.60763888888888895</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
       </c>
       <c r="I6" s="3">
-        <v>105</v>
+        <v>9050</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K6" s="3">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3">
-        <v>450</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3">
-        <v>2</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>312.38</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
       <c r="T6" s="2"/>
-      <c r="U6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>968969</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>969469</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>9050</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>312.38</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>244</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="3">
-        <v>650</v>
-      </c>
-      <c r="L7" s="3">
-        <v>650</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3">
-        <v>2</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>968719</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>969469</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>9050</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>309.98</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="6">
+      <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
-        <v>2</v>
-      </c>
-      <c r="I8" s="3">
-        <v>252</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="7">
-        <v>2200</v>
-      </c>
-      <c r="L8" s="7">
-        <v>4400</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3">
-        <v>2</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
       <c r="T8" s="2"/>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>967469</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>968220</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6">
-        <v>0.4597222222222222</v>
+        <v>0.35347222222222219</v>
       </c>
       <c r="G9" s="6">
-        <v>0.44097222222222227</v>
+        <v>0.77916666666666667</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" s="3">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K9" s="3">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L9" s="3">
-        <v>400</v>
-      </c>
-      <c r="M9" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="M9" s="3">
+        <v>350</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
       <c r="T9" s="2"/>
-      <c r="U9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>968219</v>
+        <v>971971</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6">
-        <v>0.45902777777777781</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="G10" s="6">
-        <v>0.44027777777777777</v>
+        <v>0.60833333333333328</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
       </c>
       <c r="I10" s="3">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K10" s="3">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L10" s="3">
-        <v>400</v>
-      </c>
-      <c r="M10" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="S10" s="3">
+        <v>1</v>
+      </c>
       <c r="T10" s="2"/>
-      <c r="U10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>969719</v>
+        <v>967969</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F11" s="6">
-        <v>0.65208333333333335</v>
+        <v>0.4284722222222222</v>
       </c>
       <c r="G11" s="6">
-        <v>0.4597222222222222</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
       </c>
       <c r="I11" s="3">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K11" s="3">
-        <v>610</v>
+        <v>450</v>
       </c>
       <c r="L11" s="3">
-        <v>610</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="3">
-        <v>3</v>
+        <v>450</v>
+      </c>
+      <c r="M11" s="3">
+        <v>350</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="O11" s="2"/>
-      <c r="P11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="P11" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
       <c r="T11" s="2"/>
-      <c r="U11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>970719</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>972220</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.42638888888888887</v>
       </c>
       <c r="G12" s="6">
-        <v>0.66249999999999998</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
       </c>
       <c r="I12" s="3">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K12" s="3">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="L12" s="3">
-        <v>405</v>
-      </c>
-      <c r="M12" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="3">
-        <v>2</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="S12" s="3">
+        <v>1</v>
+      </c>
       <c r="T12" s="2"/>
-      <c r="U12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>970219</v>
-      </c>
-      <c r="B13" s="4"/>
+        <v>972219</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.42569444444444443</v>
+      </c>
       <c r="G13" s="6">
-        <v>0</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>120</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="3">
+        <v>450</v>
+      </c>
+      <c r="L13" s="3">
+        <v>450</v>
+      </c>
+      <c r="M13" s="3">
+        <v>350</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3">
         <v>2</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="3">
-        <v>550</v>
-      </c>
-      <c r="L13" s="7">
-        <v>1100</v>
-      </c>
-      <c r="M13" s="3" t="s">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="3">
-        <v>2</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="S13" s="3">
+        <v>1</v>
+      </c>
       <c r="T13" s="2"/>
-      <c r="U13" s="3" t="s">
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>972219</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>967719</v>
-      </c>
-      <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6">
-        <v>0.78263888888888899</v>
+        <v>0.42569444444444443</v>
       </c>
       <c r="G14" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
       </c>
       <c r="I14" s="3">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K14" s="3">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="L14" s="3">
-        <v>405</v>
-      </c>
-      <c r="M14" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="M14" s="3">
+        <v>350</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="3">
-        <v>2</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="S14" s="3">
+        <v>1</v>
+      </c>
       <c r="T14" s="2"/>
-      <c r="U14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>966722</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>972219</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F15" s="6">
-        <v>0.9375</v>
+        <v>0.42569444444444443</v>
       </c>
       <c r="G15" s="6">
-        <v>0</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K15" s="3">
-        <v>400</v>
-      </c>
-      <c r="L15" s="7">
-        <v>2000</v>
-      </c>
-      <c r="M15" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="L15" s="3">
+        <v>450</v>
+      </c>
+      <c r="M15" s="3">
+        <v>350</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="S15" s="3">
+        <v>1</v>
+      </c>
       <c r="T15" s="2"/>
-      <c r="U15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>966721</v>
-      </c>
-      <c r="B16" s="4"/>
+        <v>968969</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.96527777777777779</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="6">
-        <v>0.46111111111111108</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K16" s="3">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="L16" s="3">
-        <v>400</v>
-      </c>
-      <c r="M16" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
+      <c r="S16" s="3">
+        <v>1</v>
+      </c>
       <c r="T16" s="2"/>
-      <c r="U16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>966720</v>
-      </c>
-      <c r="B17" s="4"/>
+        <v>968220</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F17" s="6">
-        <v>0.96458333333333324</v>
+        <v>0.4597222222222222</v>
       </c>
       <c r="G17" s="6">
-        <v>0.65625</v>
+        <v>0.44097222222222227</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
@@ -1997,55 +2141,59 @@
       <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
       <c r="T17" s="2"/>
-      <c r="U17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>966719</v>
-      </c>
-      <c r="B18" s="4"/>
+        <v>968219</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F18" s="6">
-        <v>0.96458333333333324</v>
+        <v>0.45902777777777781</v>
       </c>
       <c r="G18" s="6">
-        <v>0.46527777777777773</v>
+        <v>0.44027777777777777</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
       <c r="I18" s="3">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K18" s="3">
         <v>400</v>
@@ -2053,134 +2201,1311 @@
       <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
+      <c r="M18" s="3">
+        <v>350</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1</v>
+      </c>
       <c r="T18" s="2"/>
-      <c r="U18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>966470</v>
-      </c>
-      <c r="B19" s="4"/>
+        <v>968219</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>146</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="3">
+        <v>400</v>
+      </c>
+      <c r="L19" s="3">
+        <v>400</v>
+      </c>
+      <c r="M19" s="3">
+        <v>350</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="3">
-        <v>650</v>
-      </c>
-      <c r="L19" s="7">
-        <v>1300</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="3">
-        <v>2</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="3" t="s">
+    </row>
+    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>969719</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>966469</v>
-      </c>
-      <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.65208333333333335</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>145</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="3">
+        <v>610</v>
+      </c>
+      <c r="L20" s="3">
+        <v>610</v>
+      </c>
+      <c r="M20" s="3">
+        <v>310</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>970970</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.8534722222222223</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>611</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1280</v>
+      </c>
+      <c r="L21" s="7">
+        <v>2560</v>
+      </c>
+      <c r="M21" s="3">
+        <v>440</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S21" s="3">
+        <v>1</v>
+      </c>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="3">
+        <v>20</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>970970</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.8534722222222223</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>611</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1280</v>
+      </c>
+      <c r="L22" s="7">
+        <v>2560</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1095</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S22" s="3">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="3">
+        <v>20</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>970970</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.8534722222222223</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="3">
+        <v>611</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1280</v>
+      </c>
+      <c r="L23" s="7">
+        <v>2560</v>
+      </c>
+      <c r="M23" s="3">
+        <v>440</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" s="3">
+        <v>1</v>
+      </c>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="3">
+        <v>20</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>970970</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.8534722222222223</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>611</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1280</v>
+      </c>
+      <c r="L24" s="7">
+        <v>2560</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1095</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1</v>
+      </c>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="3">
+        <v>20</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>970969</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.8534722222222223</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>610</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="3">
+        <v>540</v>
+      </c>
+      <c r="L25" s="7">
+        <v>1080</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S25" s="3">
+        <v>1</v>
+      </c>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="3">
+        <v>10</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>970719</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>135</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="3">
+        <v>405</v>
+      </c>
+      <c r="L26" s="3">
+        <v>405</v>
+      </c>
+      <c r="M26" s="3">
+        <v>305</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S26" s="3">
+        <v>1</v>
+      </c>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>970469</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="6">
+      <c r="G27" s="6">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>242</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="3">
+        <v>400</v>
+      </c>
+      <c r="L27" s="3">
+        <v>400</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" s="3">
+        <v>1</v>
+      </c>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>970219</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="6">
         <v>0</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H28" s="3">
         <v>2</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="I28" s="2"/>
+      <c r="J28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="3">
+        <v>550</v>
+      </c>
+      <c r="L28" s="7">
+        <v>1100</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P28" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S28" s="3">
+        <v>1</v>
+      </c>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>967719</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.78263888888888899</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>140</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="3">
+        <v>405</v>
+      </c>
+      <c r="L29" s="3">
+        <v>405</v>
+      </c>
+      <c r="M29" s="3">
+        <v>305</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P29" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S29" s="3">
+        <v>1</v>
+      </c>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>966722</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>5</v>
+      </c>
+      <c r="I30" s="3">
+        <v>148</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="3">
+        <v>400</v>
+      </c>
+      <c r="L30" s="7">
+        <v>2000</v>
+      </c>
+      <c r="M30" s="3">
+        <v>350</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S30" s="3">
+        <v>1</v>
+      </c>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>966722</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>5</v>
+      </c>
+      <c r="I31" s="3">
+        <v>148</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="3">
+        <v>400</v>
+      </c>
+      <c r="L31" s="7">
+        <v>2000</v>
+      </c>
+      <c r="M31" s="3">
+        <v>350</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S31" s="3">
+        <v>1</v>
+      </c>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>966721</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>222</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="3">
+        <v>400</v>
+      </c>
+      <c r="L32" s="3">
+        <v>400</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S32" s="3">
+        <v>1</v>
+      </c>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>966720</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.96458333333333324</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.65625</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>221</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="3">
+        <v>400</v>
+      </c>
+      <c r="L33" s="3">
+        <v>400</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P33" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S33" s="3">
+        <v>1</v>
+      </c>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>966719</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.96458333333333324</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3">
+        <v>219</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="3">
+        <v>400</v>
+      </c>
+      <c r="L34" s="3">
+        <v>400</v>
+      </c>
+      <c r="M34" s="3">
+        <v>350</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S34" s="3">
+        <v>1</v>
+      </c>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>966719</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.96458333333333324</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
+        <v>219</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="3">
+        <v>400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>350</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S35" s="3">
+        <v>1</v>
+      </c>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>966719</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.96458333333333324</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
+        <v>219</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="3">
+        <v>400</v>
+      </c>
+      <c r="L36" s="3">
+        <v>400</v>
+      </c>
+      <c r="M36" s="3">
+        <v>350</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P36" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S36" s="3">
+        <v>1</v>
+      </c>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>966470</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" s="3">
+        <v>650</v>
+      </c>
+      <c r="L37" s="7">
+        <v>1300</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P37" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S37" s="3">
+        <v>1</v>
+      </c>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>966469</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="3">
         <v>495</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L38" s="3">
         <v>990</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P38" s="3">
         <v>2</v>
       </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>53</v>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S38" s="3">
+        <v>1</v>
+      </c>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>966219</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3">
+        <v>235</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="3">
+        <v>499.5</v>
+      </c>
+      <c r="L39" s="3">
+        <v>499.5</v>
+      </c>
+      <c r="M39" s="3">
+        <v>349.5</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S39" s="3">
+        <v>1</v>
+      </c>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Saudi/Booking.xlsx
+++ b/Saudi/Booking.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
-  <si>
-    <t>Birth Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="25">
   <si>
     <t>Gender</t>
   </si>
@@ -45,19 +42,25 @@
     <t>Pos</t>
   </si>
   <si>
-    <t>Payment Method</t>
-  </si>
-  <si>
-    <t>Reservation Date</t>
+    <t>Pm</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Res Date</t>
   </si>
   <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Discount Prcnt</t>
+    <t>Disc</t>
+  </si>
+  <si>
+    <t>Disc Prcnt</t>
   </si>
   <si>
     <t>Adults</t>
@@ -66,16 +69,28 @@
     <t>Children</t>
   </si>
   <si>
+    <t>Birth</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
     <t>AE</t>
   </si>
   <si>
-    <t>GC</t>
-  </si>
-  <si>
-    <t>T</t>
+    <t>RS</t>
   </si>
   <si>
     <t>VI</t>
@@ -937,31 +952,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1007,366 +1026,690 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4">
+        <v>24926</v>
+      </c>
+      <c r="D2" s="5">
+        <v>43548</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43553</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="5">
+        <v>43548</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4">
+        <v>24926</v>
+      </c>
+      <c r="D3" s="5">
+        <v>43548</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43553</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="5">
+        <v>43549</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4">
+        <v>24926</v>
+      </c>
+      <c r="D4" s="5">
+        <v>43548</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43553</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="5">
+        <v>43550</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4">
+        <v>24926</v>
+      </c>
+      <c r="D5" s="5">
+        <v>43548</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43553</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="5">
+        <v>43551</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4">
+        <v>24926</v>
+      </c>
+      <c r="D6" s="5">
+        <v>43548</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43553</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5">
+        <v>43552</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
+        <v>24926</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43548</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43553</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5">
+        <v>43553</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4">
         <v>24903</v>
       </c>
-      <c r="E2" s="5">
+      <c r="D8" s="5">
         <v>43737</v>
       </c>
-      <c r="F2" s="5">
+      <c r="E8" s="5">
         <v>43744</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="H8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="4">
+        <v>401</v>
+      </c>
+      <c r="K8" s="5">
         <v>43737</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L8" s="4">
         <v>636.98</v>
       </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
         <v>2</v>
       </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4">
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4">
         <v>24903</v>
       </c>
-      <c r="E3" s="5">
+      <c r="D9" s="5">
         <v>43737</v>
       </c>
-      <c r="F3" s="5">
+      <c r="E9" s="5">
         <v>43744</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="4">
+        <v>401</v>
+      </c>
+      <c r="K9" s="5">
         <v>43738</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L9" s="4">
         <v>636.98</v>
       </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
         <v>2</v>
       </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4">
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4">
         <v>24903</v>
       </c>
-      <c r="E4" s="5">
+      <c r="D10" s="5">
         <v>43737</v>
       </c>
-      <c r="F4" s="5">
+      <c r="E10" s="5">
         <v>43744</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="H10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="4">
+        <v>401</v>
+      </c>
+      <c r="K10" s="5">
         <v>43739</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L10" s="4">
         <v>696.83</v>
       </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
         <v>2</v>
       </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4">
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4">
         <v>24903</v>
       </c>
-      <c r="E5" s="5">
+      <c r="D11" s="5">
         <v>43737</v>
       </c>
-      <c r="F5" s="5">
+      <c r="E11" s="5">
         <v>43744</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="H11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="4">
+        <v>401</v>
+      </c>
+      <c r="K11" s="5">
         <v>43740</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L11" s="4">
         <v>696.83</v>
       </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
         <v>2</v>
       </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4">
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4">
         <v>24903</v>
       </c>
-      <c r="E6" s="5">
+      <c r="D12" s="5">
         <v>43737</v>
       </c>
-      <c r="F6" s="5">
+      <c r="E12" s="5">
         <v>43744</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="H12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="4">
+        <v>401</v>
+      </c>
+      <c r="K12" s="5">
         <v>43741</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L12" s="4">
         <v>696.83</v>
       </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
         <v>2</v>
       </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4">
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4">
         <v>24903</v>
       </c>
-      <c r="E7" s="5">
+      <c r="D13" s="5">
         <v>43737</v>
       </c>
-      <c r="F7" s="5">
+      <c r="E13" s="5">
         <v>43744</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="F13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="H13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="4">
+        <v>401</v>
+      </c>
+      <c r="K13" s="5">
         <v>43742</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L13" s="4">
         <v>696.83</v>
       </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
         <v>2</v>
       </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4">
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4">
         <v>24903</v>
       </c>
-      <c r="E8" s="5">
+      <c r="D14" s="5">
         <v>43737</v>
       </c>
-      <c r="F8" s="5">
+      <c r="E14" s="5">
         <v>43744</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="F14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="H14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="4">
+        <v>401</v>
+      </c>
+      <c r="K14" s="5">
         <v>43743</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L14" s="4">
         <v>696.83</v>
       </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
         <v>2</v>
       </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4">
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4">
         <v>24903</v>
       </c>
-      <c r="E9" s="5">
+      <c r="D15" s="5">
         <v>43737</v>
       </c>
-      <c r="F9" s="5">
+      <c r="E15" s="5">
         <v>43744</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="F15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="H15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="4">
+        <v>401</v>
+      </c>
+      <c r="K15" s="5">
         <v>43744</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L15" s="4">
         <v>696.83</v>
       </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
         <v>2</v>
       </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Saudi/Booking.xlsx
+++ b/Saudi/Booking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="26">
   <si>
     <t>Gender</t>
   </si>
@@ -72,7 +72,7 @@
     <t>Birth</t>
   </si>
   <si>
-    <t>VS</t>
+    <t>GC</t>
   </si>
   <si>
     <t>T</t>
@@ -81,19 +81,22 @@
     <t>CA</t>
   </si>
   <si>
+    <t>CHECKED IN</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
     <t>RESERVED</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>VI</t>
   </si>
 </sst>
 </file>
@@ -954,9 +957,7 @@
   </sheetPr>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -967,16 +968,16 @@
     <col min="5" max="5" width="18.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="11" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1057,7 +1058,9 @@
       <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="4">
+        <v>1410</v>
+      </c>
       <c r="K2" s="5">
         <v>43548</v>
       </c>
@@ -1102,7 +1105,9 @@
       <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="4">
+        <v>1410</v>
+      </c>
       <c r="K3" s="5">
         <v>43549</v>
       </c>
@@ -1147,7 +1152,9 @@
       <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="4">
+        <v>1410</v>
+      </c>
       <c r="K4" s="5">
         <v>43550</v>
       </c>
@@ -1192,7 +1199,9 @@
       <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="4">
+        <v>1410</v>
+      </c>
       <c r="K5" s="5">
         <v>43551</v>
       </c>
@@ -1237,7 +1246,9 @@
       <c r="I6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="4">
+        <v>1410</v>
+      </c>
       <c r="K6" s="5">
         <v>43552</v>
       </c>
@@ -1282,7 +1293,9 @@
       <c r="I7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="4">
+        <v>1410</v>
+      </c>
       <c r="K7" s="5">
         <v>43553</v>
       </c>
@@ -1329,7 +1342,7 @@
         <v>24</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J8" s="4">
         <v>401</v>
@@ -1380,7 +1393,7 @@
         <v>24</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J9" s="4">
         <v>401</v>
@@ -1431,7 +1444,7 @@
         <v>24</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J10" s="4">
         <v>401</v>
@@ -1482,7 +1495,7 @@
         <v>24</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J11" s="4">
         <v>401</v>
@@ -1533,7 +1546,7 @@
         <v>24</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J12" s="4">
         <v>401</v>
@@ -1584,7 +1597,7 @@
         <v>24</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J13" s="4">
         <v>401</v>
@@ -1635,7 +1648,7 @@
         <v>24</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J14" s="4">
         <v>401</v>
@@ -1686,7 +1699,7 @@
         <v>24</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J15" s="4">
         <v>401</v>

--- a/Saudi/Booking.xlsx
+++ b/Saudi/Booking.xlsx
@@ -19,7 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+  <si>
+    <t>Booking No</t>
+  </si>
+  <si>
+    <t>Birth</t>
+  </si>
   <si>
     <t>Gender</t>
   </si>
@@ -27,7 +33,13 @@
     <t>Nationality</t>
   </si>
   <si>
-    <t>Booking No</t>
+    <t>Ct</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Pm</t>
   </si>
   <si>
     <t>Arrival Date</t>
@@ -36,42 +48,36 @@
     <t>Departure Date</t>
   </si>
   <si>
-    <t>Ct</t>
-  </si>
-  <si>
-    <t>Pos</t>
-  </si>
-  <si>
-    <t>Pm</t>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Res Date</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Disc</t>
+  </si>
+  <si>
+    <t>Disc Prcnt</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>Children</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>Res Date</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Disc</t>
-  </si>
-  <si>
-    <t>Disc Prcnt</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Birth</t>
-  </si>
-  <si>
     <t>GC</t>
   </si>
   <si>
@@ -81,16 +87,16 @@
     <t>CA</t>
   </si>
   <si>
+    <t>Deluxe King City View</t>
+  </si>
+  <si>
     <t>CHECKED IN</t>
   </si>
   <si>
+    <t>CT</t>
+  </si>
+  <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>RS</t>
   </si>
   <si>
     <t>VI</t>
@@ -240,21 +246,21 @@
     </font>
     <font>
       <b/>
-      <sz val="5"/>
+      <sz val="4"/>
       <color rgb="FF326598"/>
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="4"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="36">
@@ -628,7 +634,7 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="15" fontId="20" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -955,33 +961,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1033,696 +1043,428 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>24926</v>
       </c>
-      <c r="D2" s="5">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5">
         <v>43548</v>
       </c>
-      <c r="E2" s="5">
+      <c r="I2" s="5">
         <v>43553</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="3">
+        <v>1410</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5">
+        <v>43548</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>24926</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4">
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5">
+        <v>43548</v>
+      </c>
+      <c r="I3" s="5">
+        <v>43553</v>
+      </c>
+      <c r="J3" s="3">
         <v>1410</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>43549</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>24926</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5">
         <v>43548</v>
       </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
+      <c r="I4" s="5">
+        <v>43553</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1410</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3">
         <v>1</v>
       </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3"/>
+      <c r="M4" s="5">
+        <v>43550</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>24926</v>
       </c>
-      <c r="D3" s="5">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="5">
         <v>43548</v>
       </c>
-      <c r="E3" s="5">
+      <c r="I5" s="5">
         <v>43553</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="J5" s="3">
+        <v>1410</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5">
+        <v>43551</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>24926</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4">
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5">
+        <v>43548</v>
+      </c>
+      <c r="I6" s="5">
+        <v>43553</v>
+      </c>
+      <c r="J6" s="3">
         <v>1410</v>
       </c>
-      <c r="K3" s="5">
-        <v>43549</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
+      <c r="K6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="3">
         <v>1</v>
       </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3"/>
+      <c r="M6" s="5">
+        <v>43552</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>24926</v>
       </c>
-      <c r="D4" s="5">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5">
         <v>43548</v>
       </c>
-      <c r="E4" s="5">
+      <c r="I7" s="5">
         <v>43553</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="J7" s="3">
         <v>1410</v>
       </c>
-      <c r="K4" s="5">
-        <v>43550</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
+      <c r="K7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="3">
         <v>1</v>
       </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3"/>
+      <c r="M7" s="5">
+        <v>43553</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4">
-        <v>24926</v>
-      </c>
-      <c r="D5" s="5">
-        <v>43548</v>
-      </c>
-      <c r="E5" s="5">
-        <v>43553</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1410</v>
-      </c>
-      <c r="K5" s="5">
-        <v>43551</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>10900</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="5">
+        <v>43773</v>
+      </c>
+      <c r="I8" s="5">
+        <v>43774</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3">
+        <v>4</v>
+      </c>
+      <c r="M8" s="5">
+        <v>43773</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2700.01</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1</v>
       </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3"/>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4">
-        <v>24926</v>
-      </c>
-      <c r="D6" s="5">
-        <v>43548</v>
-      </c>
-      <c r="E6" s="5">
-        <v>43553</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1410</v>
-      </c>
-      <c r="K6" s="5">
-        <v>43552</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5">
+        <v>43773</v>
+      </c>
+      <c r="I9" s="5">
+        <v>43774</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3">
+        <v>4</v>
+      </c>
+      <c r="M9" s="5">
+        <v>43774</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2700.01</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1</v>
       </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4">
-        <v>24926</v>
-      </c>
-      <c r="D7" s="5">
-        <v>43548</v>
-      </c>
-      <c r="E7" s="5">
-        <v>43553</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="4">
-        <v>1410</v>
-      </c>
-      <c r="K7" s="5">
-        <v>43553</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4">
-        <v>24903</v>
-      </c>
-      <c r="D8" s="5">
-        <v>43737</v>
-      </c>
-      <c r="E8" s="5">
-        <v>43744</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="4">
-        <v>401</v>
-      </c>
-      <c r="K8" s="5">
-        <v>43737</v>
-      </c>
-      <c r="L8" s="4">
-        <v>636.98</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4">
-        <v>24903</v>
-      </c>
-      <c r="D9" s="5">
-        <v>43737</v>
-      </c>
-      <c r="E9" s="5">
-        <v>43744</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="4">
-        <v>401</v>
-      </c>
-      <c r="K9" s="5">
-        <v>43738</v>
-      </c>
-      <c r="L9" s="4">
-        <v>636.98</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4">
-        <v>24903</v>
-      </c>
-      <c r="D10" s="5">
-        <v>43737</v>
-      </c>
-      <c r="E10" s="5">
-        <v>43744</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="4">
-        <v>401</v>
-      </c>
-      <c r="K10" s="5">
-        <v>43739</v>
-      </c>
-      <c r="L10" s="4">
-        <v>696.83</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>2</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4">
-        <v>24903</v>
-      </c>
-      <c r="D11" s="5">
-        <v>43737</v>
-      </c>
-      <c r="E11" s="5">
-        <v>43744</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="4">
-        <v>401</v>
-      </c>
-      <c r="K11" s="5">
-        <v>43740</v>
-      </c>
-      <c r="L11" s="4">
-        <v>696.83</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>2</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4">
-        <v>24903</v>
-      </c>
-      <c r="D12" s="5">
-        <v>43737</v>
-      </c>
-      <c r="E12" s="5">
-        <v>43744</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="4">
-        <v>401</v>
-      </c>
-      <c r="K12" s="5">
-        <v>43741</v>
-      </c>
-      <c r="L12" s="4">
-        <v>696.83</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>2</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4">
-        <v>24903</v>
-      </c>
-      <c r="D13" s="5">
-        <v>43737</v>
-      </c>
-      <c r="E13" s="5">
-        <v>43744</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="4">
-        <v>401</v>
-      </c>
-      <c r="K13" s="5">
-        <v>43742</v>
-      </c>
-      <c r="L13" s="4">
-        <v>696.83</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>2</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="4">
-        <v>24903</v>
-      </c>
-      <c r="D14" s="5">
-        <v>43737</v>
-      </c>
-      <c r="E14" s="5">
-        <v>43744</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="4">
-        <v>401</v>
-      </c>
-      <c r="K14" s="5">
-        <v>43743</v>
-      </c>
-      <c r="L14" s="4">
-        <v>696.83</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>2</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4">
-        <v>24903</v>
-      </c>
-      <c r="D15" s="5">
-        <v>43737</v>
-      </c>
-      <c r="E15" s="5">
-        <v>43744</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="4">
-        <v>401</v>
-      </c>
-      <c r="K15" s="5">
-        <v>43744</v>
-      </c>
-      <c r="L15" s="4">
-        <v>696.83</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>2</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3"/>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
